--- a/prova1/documentazione/Grafici-PDC-Cluster.xlsx
+++ b/prova1/documentazione/Grafici-PDC-Cluster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgcarofano/Coding/C++/PDC/Esercitazioni-PDC/prova1/documentazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A71FD-FB3F-9441-85F3-CEE29E9EDD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5E38B3-ED9B-384A-92A9-D00BCA48F5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17220" activeTab="2" xr2:uid="{62BA1B68-9D84-4107-AF74-AB712812933E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
   <si>
     <t>T(1)</t>
   </si>
@@ -72,6 +72,18 @@
   <si>
     <t>Overhead Oh(p) in secondi</t>
   </si>
+  <si>
+    <t>q_num</t>
+  </si>
+  <si>
+    <t>Efficienza E(p) per strategia 1</t>
+  </si>
+  <si>
+    <t>Efficienza E(p) per strategia 2</t>
+  </si>
+  <si>
+    <t>Efficienza E(p) per strategia 3</t>
+  </si>
 </sst>
 </file>
 
@@ -79,7 +91,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -126,12 +138,30 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9A7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -304,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,6 +381,45 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -381,15 +450,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,37 +459,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -438,25 +480,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,6 +510,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD9A7FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4298,8 +4348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B43CE63-0F87-4A17-9E5E-554162DDADCD}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:R16"/>
+    <sheetView topLeftCell="I9" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4339,20 +4389,20 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
-      <c r="T2" s="18" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="T2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="20"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="33"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -4367,20 +4417,20 @@
       <c r="D3" s="7">
         <v>5.6337999999999995E-5</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="20" t="s">
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="20" t="s">
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
@@ -4395,8 +4445,8 @@
       <c r="D4" s="7">
         <v>4.85897E-5</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
       <c r="P4" s="10">
         <v>1</v>
       </c>
@@ -4406,8 +4456,8 @@
       <c r="R4" s="11">
         <v>3</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="24"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="37"/>
       <c r="V4" s="10">
         <v>1</v>
       </c>
@@ -4425,7 +4475,7 @@
       <c r="B5" s="7">
         <v>1.8575970333333327E-2</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="29" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="12">
@@ -4440,7 +4490,7 @@
       <c r="R5" s="13">
         <v>5.6337999999999995E-5</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="29" t="s">
         <v>5</v>
       </c>
       <c r="U5" s="12">
@@ -4472,7 +4522,7 @@
       <c r="D6" s="7">
         <v>7.0095100000000006E-5</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="11">
         <v>4</v>
       </c>
@@ -4485,7 +4535,7 @@
       <c r="R6" s="13">
         <v>4.85897E-5</v>
       </c>
-      <c r="T6" s="17"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="11">
         <v>4</v>
       </c>
@@ -4503,7 +4553,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="N7" s="17"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="11">
         <v>7</v>
       </c>
@@ -4512,7 +4562,7 @@
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
-      <c r="T7" s="17"/>
+      <c r="T7" s="30"/>
       <c r="U7" s="11">
         <v>7</v>
       </c>
@@ -4524,7 +4574,7 @@
       <c r="X7" s="14"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="N8" s="17"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="11">
         <v>8</v>
       </c>
@@ -4537,7 +4587,7 @@
       <c r="R8" s="13">
         <v>7.0095100000000006E-5</v>
       </c>
-      <c r="T8" s="17"/>
+      <c r="T8" s="30"/>
       <c r="U8" s="11">
         <v>8</v>
       </c>
@@ -4593,13 +4643,13 @@
       <c r="D11" s="7">
         <v>4.85897E-5</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
@@ -4614,17 +4664,17 @@
       <c r="D12" s="7">
         <v>7.0095100000000006E-5</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="20" t="s">
+      <c r="N12" s="34"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="37"/>
       <c r="P13" s="10">
         <v>1</v>
       </c>
@@ -4636,7 +4686,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="29" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="12">
@@ -4653,7 +4703,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="N15" s="17"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="11">
         <v>4</v>
       </c>
@@ -4668,7 +4718,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="N16" s="17"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="11">
         <v>8</v>
       </c>
@@ -4683,13 +4733,13 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N19" s="18" t="s">
+      <c r="N19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="20"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="33"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B20" s="6">
@@ -4701,13 +4751,13 @@
       <c r="D20" s="6">
         <v>3</v>
       </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="20" t="s">
+      <c r="N20" s="34"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
@@ -4725,8 +4775,8 @@
         <f t="shared" ref="D21" si="2">$B$2/D10</f>
         <v>0.86134107233720281</v>
       </c>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
       <c r="P21" s="10">
         <v>1</v>
       </c>
@@ -4753,14 +4803,14 @@
         <f t="shared" si="3"/>
         <v>0.99869382468575296</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="N22" s="29" t="s">
         <v>5</v>
       </c>
       <c r="O22" s="12">
         <v>2</v>
       </c>
       <c r="P22" s="15">
-        <v>0.55519338124865092</v>
+        <v>0.55519338124865103</v>
       </c>
       <c r="Q22" s="15">
         <v>0.43639326944752194</v>
@@ -4785,7 +4835,7 @@
         <f t="shared" si="3"/>
         <v>0.69229137747621905</v>
       </c>
-      <c r="N23" s="17"/>
+      <c r="N23" s="30"/>
       <c r="O23" s="11">
         <v>4</v>
       </c>
@@ -4800,7 +4850,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N24" s="17"/>
+      <c r="N24" s="30"/>
       <c r="O24" s="11">
         <v>8</v>
       </c>
@@ -4907,8 +4957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE08996-15CC-D34A-A30E-400857404F9B}">
   <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="Y1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4964,34 +5014,34 @@
       <c r="D3" s="3">
         <v>2.6555049999999998E-4</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="31"/>
-      <c r="U3" s="29" t="s">
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41"/>
+      <c r="U3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="31"/>
-      <c r="AA3" s="29" t="s">
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="41"/>
+      <c r="AA3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="31"/>
-      <c r="AG3" s="29" t="s">
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="41"/>
+      <c r="AG3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="41"/>
     </row>
     <row r="4" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -5006,34 +5056,34 @@
       <c r="D4" s="3">
         <v>1.4309880000000001E-4</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="34" t="s">
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="34" t="s">
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="45" t="s">
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="34"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="34" t="s">
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="42"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
     </row>
     <row r="5" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -5044,48 +5094,48 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="26">
+      <c r="O5" s="36"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="16">
         <v>1</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="17">
         <v>2</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="17">
         <v>3</v>
       </c>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="26">
+      <c r="U5" s="36"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="16">
         <v>1</v>
       </c>
-      <c r="X5" s="27">
+      <c r="X5" s="17">
         <v>2</v>
       </c>
-      <c r="Y5" s="27">
+      <c r="Y5" s="17">
         <v>3</v>
       </c>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="26">
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="16">
         <v>1</v>
       </c>
-      <c r="AD5" s="27">
+      <c r="AD5" s="17">
         <v>2</v>
       </c>
-      <c r="AE5" s="27">
+      <c r="AE5" s="17">
         <v>3</v>
       </c>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="26">
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="16">
         <v>1</v>
       </c>
-      <c r="AJ5" s="27">
+      <c r="AJ5" s="17">
         <v>2</v>
       </c>
-      <c r="AK5" s="27">
+      <c r="AK5" s="17">
         <v>3</v>
       </c>
     </row>
@@ -5102,28 +5152,28 @@
       <c r="D6" s="3">
         <v>1.1551389999999999E-4</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="18">
         <v>2</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q6" s="27">
         <f>B3</f>
         <v>2.3553369999999998E-4</v>
       </c>
-      <c r="R6" s="50">
+      <c r="R6" s="27">
         <f t="shared" ref="R6:S6" si="0">C3</f>
         <v>2.4464119999999999E-4</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="27">
         <f t="shared" si="0"/>
         <v>2.6555049999999998E-4</v>
       </c>
-      <c r="U6" s="32" t="s">
+      <c r="U6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="18">
         <v>2</v>
       </c>
       <c r="W6" s="13">
@@ -5135,13 +5185,13 @@
         <v>2.1679933333333342E-5</v>
       </c>
       <c r="Y6" s="13">
-        <f t="shared" ref="X6:Y6" si="1">$V$6*S6-$B$2</f>
+        <f t="shared" ref="Y6" si="1">$V$6*S6-$B$2</f>
         <v>6.3498533333333329E-5</v>
       </c>
-      <c r="AA6" s="42" t="s">
+      <c r="AA6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="28">
+      <c r="AB6" s="18">
         <v>2</v>
       </c>
       <c r="AC6" s="15">
@@ -5156,44 +5206,44 @@
         <f t="shared" si="2"/>
         <v>1.7608796318088902</v>
       </c>
-      <c r="AG6" s="42" t="s">
+      <c r="AG6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AH6" s="27">
+      <c r="AH6" s="17">
         <v>2</v>
       </c>
-      <c r="AI6" s="49">
+      <c r="AI6" s="26">
         <f>AC6/$AH$6</f>
         <v>0.99264450621432665</v>
       </c>
-      <c r="AJ6" s="49">
+      <c r="AJ6" s="26">
         <f>AD6/$AH$6</f>
         <v>0.9556903470606477</v>
       </c>
-      <c r="AK6" s="49">
+      <c r="AK6" s="26">
         <f>AE6/$AH$6</f>
         <v>0.88043981590444509</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O7" s="33"/>
-      <c r="P7" s="27">
+      <c r="O7" s="49"/>
+      <c r="P7" s="17">
         <v>4</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="27">
         <f t="shared" ref="Q7:Q9" si="3">B4</f>
         <v>1.3022430000000001E-4</v>
       </c>
-      <c r="R7" s="50">
+      <c r="R7" s="27">
         <f t="shared" ref="R7:R9" si="4">C4</f>
         <v>1.372337E-4</v>
       </c>
-      <c r="S7" s="50">
+      <c r="S7" s="27">
         <f t="shared" ref="S7:S9" si="5">D4</f>
         <v>1.4309880000000001E-4</v>
       </c>
-      <c r="U7" s="33"/>
-      <c r="V7" s="27">
+      <c r="U7" s="49"/>
+      <c r="V7" s="17">
         <v>4</v>
       </c>
       <c r="W7" s="13">
@@ -5208,62 +5258,62 @@
         <f>$V$7*S7-$B$2</f>
         <v>1.0479273333333338E-4</v>
       </c>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="27">
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="17">
         <v>4</v>
       </c>
       <c r="AC7" s="15">
-        <f t="shared" ref="AC7:AC8" si="6">$B$2/Q7</f>
+        <f t="shared" ref="AC7" si="6">$B$2/Q7</f>
         <v>3.5907466322849619</v>
       </c>
       <c r="AD7" s="15">
-        <f t="shared" ref="AD7:AD8" si="7">$B$2/R7</f>
+        <f t="shared" ref="AD7" si="7">$B$2/R7</f>
         <v>3.4073443087715818</v>
       </c>
       <c r="AE7" s="15">
-        <f t="shared" ref="AE7:AE8" si="8">$B$2/S7</f>
+        <f t="shared" ref="AE7" si="8">$B$2/S7</f>
         <v>3.267689642866793</v>
       </c>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="27">
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="17">
         <v>4</v>
       </c>
-      <c r="AI7" s="49">
+      <c r="AI7" s="26">
         <f>AC7/$AH$7</f>
         <v>0.89768665807124048</v>
       </c>
-      <c r="AJ7" s="49">
+      <c r="AJ7" s="26">
         <f>AD7/$AH$7</f>
         <v>0.85183607719289545</v>
       </c>
-      <c r="AK7" s="49">
+      <c r="AK7" s="26">
         <f>AE7/$AH$7</f>
         <v>0.81692241071669824</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O8" s="33"/>
-      <c r="P8" s="27">
+      <c r="O8" s="49"/>
+      <c r="P8" s="17">
         <v>7</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="27">
         <f t="shared" si="3"/>
         <v>1.8826198533333335E-2</v>
       </c>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="27">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="17">
         <v>7</v>
       </c>
       <c r="W8" s="13">
         <f>$V$8*Q8-$B$2</f>
         <v>0.13131578726666668</v>
       </c>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="27">
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="17">
         <v>8</v>
       </c>
       <c r="AC8" s="15">
@@ -5278,19 +5328,19 @@
         <f>$B$2/S9</f>
         <v>4.0480190407099643</v>
       </c>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="27">
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="17">
         <v>8</v>
       </c>
-      <c r="AI8" s="49">
+      <c r="AI8" s="26">
         <f>AC8/$AH$8</f>
         <v>0.46387550530682942</v>
       </c>
-      <c r="AJ8" s="49">
+      <c r="AJ8" s="26">
         <f>AD8/$AH$8</f>
         <v>0.51742924741958052</v>
       </c>
-      <c r="AK8" s="49">
+      <c r="AK8" s="26">
         <f>AE8/$AH$8</f>
         <v>0.50600238008874554</v>
       </c>
@@ -5299,24 +5349,24 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="27">
+      <c r="O9" s="49"/>
+      <c r="P9" s="17">
         <v>8</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="27">
         <f t="shared" si="3"/>
         <v>1.260043E-4</v>
       </c>
-      <c r="R9" s="50">
+      <c r="R9" s="27">
         <f t="shared" si="4"/>
         <v>1.129629E-4</v>
       </c>
-      <c r="S9" s="50">
+      <c r="S9" s="27">
         <f t="shared" si="5"/>
         <v>1.1551389999999999E-4</v>
       </c>
-      <c r="U9" s="33"/>
-      <c r="V9" s="27">
+      <c r="U9" s="49"/>
+      <c r="V9" s="17">
         <v>8</v>
       </c>
       <c r="W9" s="13">
@@ -5331,16 +5381,16 @@
         <f>$V$9*S9-$B$2</f>
         <v>4.5650873333333324E-4</v>
       </c>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
@@ -5351,56 +5401,56 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
     </row>
     <row r="12" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
     </row>
     <row r="13" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
     </row>
     <row r="14" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O14" s="41"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
     </row>
     <row r="15" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O15" s="41"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
     </row>
     <row r="16" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O16" s="41"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" spans="2:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O17" s="41"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
@@ -5444,11 +5494,10 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AG4:AH5"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="AG6:AG8"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="O6:O9"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="U4:V5"/>
     <mergeCell ref="W4:Y4"/>
@@ -5456,10 +5505,11 @@
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AA4:AB5"/>
     <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AG4:AH5"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="AG6:AG8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5469,8 +5519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5C9D48-9EFE-6F4C-BE1D-DA53738F9F6A}">
   <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="X12" zoomScale="131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG28" sqref="AG28:AK33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5526,34 +5576,34 @@
       <c r="D3" s="3">
         <v>2.1726129999999999E-3</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="31"/>
-      <c r="U3" s="29" t="s">
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41"/>
+      <c r="U3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="31"/>
-      <c r="AA3" s="29" t="s">
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="41"/>
+      <c r="AA3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="31"/>
-      <c r="AG3" s="29" t="s">
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="41"/>
+      <c r="AG3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="41"/>
     </row>
     <row r="4" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -5568,34 +5618,34 @@
       <c r="D4" s="3">
         <v>1.1050701000000001E-3</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="34" t="s">
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="34" t="s">
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="45" t="s">
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="34"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="34" t="s">
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="42"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
     </row>
     <row r="5" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -5606,48 +5656,48 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="26">
+      <c r="O5" s="36"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="16">
         <v>1</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="17">
         <v>2</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="17">
         <v>3</v>
       </c>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="26">
+      <c r="U5" s="36"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="16">
         <v>1</v>
       </c>
-      <c r="X5" s="27">
+      <c r="X5" s="17">
         <v>2</v>
       </c>
-      <c r="Y5" s="27">
+      <c r="Y5" s="17">
         <v>3</v>
       </c>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="26">
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="16">
         <v>1</v>
       </c>
-      <c r="AD5" s="27">
+      <c r="AD5" s="17">
         <v>2</v>
       </c>
-      <c r="AE5" s="27">
+      <c r="AE5" s="17">
         <v>3</v>
       </c>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="26">
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="16">
         <v>1</v>
       </c>
-      <c r="AJ5" s="27">
+      <c r="AJ5" s="17">
         <v>2</v>
       </c>
-      <c r="AK5" s="27">
+      <c r="AK5" s="17">
         <v>3</v>
       </c>
     </row>
@@ -5664,28 +5714,28 @@
       <c r="D6" s="3">
         <v>5.9313780000000004E-4</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="18">
         <v>2</v>
       </c>
-      <c r="Q6" s="50">
-        <f>B3</f>
+      <c r="Q6" s="27">
+        <f t="shared" ref="Q6:S7" si="0">B3</f>
         <v>2.1466970000000004E-3</v>
       </c>
-      <c r="R6" s="50">
-        <f>C3</f>
+      <c r="R6" s="27">
+        <f t="shared" si="0"/>
         <v>2.1656512000000003E-3</v>
       </c>
-      <c r="S6" s="50">
-        <f>D3</f>
+      <c r="S6" s="27">
+        <f t="shared" si="0"/>
         <v>2.1726129999999999E-3</v>
       </c>
-      <c r="U6" s="32" t="s">
+      <c r="U6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="18">
         <v>2</v>
       </c>
       <c r="W6" s="13">
@@ -5700,10 +5750,10 @@
         <f>$V$6*S6-$B$2</f>
         <v>9.8280799999999474E-5</v>
       </c>
-      <c r="AA6" s="42" t="s">
+      <c r="AA6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="28">
+      <c r="AB6" s="18">
         <v>2</v>
       </c>
       <c r="AC6" s="15">
@@ -5711,51 +5761,51 @@
         <v>1.9783626659933842</v>
       </c>
       <c r="AD6" s="15">
-        <f t="shared" ref="AD6:AE7" si="0">$B$2/R6</f>
+        <f t="shared" ref="AD6:AE7" si="1">$B$2/R6</f>
         <v>1.9610476516255249</v>
       </c>
       <c r="AE6" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9547637798356174</v>
       </c>
-      <c r="AG6" s="42" t="s">
+      <c r="AG6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AH6" s="27">
+      <c r="AH6" s="17">
         <v>2</v>
       </c>
-      <c r="AI6" s="49">
+      <c r="AI6" s="26">
         <f>AC6/$AH$6</f>
         <v>0.98918133299669209</v>
       </c>
-      <c r="AJ6" s="49">
+      <c r="AJ6" s="26">
         <f>AD6/$AH$6</f>
         <v>0.98052382581276243</v>
       </c>
-      <c r="AK6" s="49">
+      <c r="AK6" s="26">
         <f>AE6/$AH$6</f>
         <v>0.97738188991780872</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O7" s="33"/>
-      <c r="P7" s="27">
+      <c r="O7" s="49"/>
+      <c r="P7" s="17">
         <v>4</v>
       </c>
-      <c r="Q7" s="50">
-        <f>B4</f>
+      <c r="Q7" s="27">
+        <f t="shared" si="0"/>
         <v>1.0842084999999999E-3</v>
       </c>
-      <c r="R7" s="50">
-        <f>C4</f>
+      <c r="R7" s="27">
+        <f t="shared" si="0"/>
         <v>1.1078120000000001E-3</v>
       </c>
-      <c r="S7" s="50">
-        <f>D4</f>
+      <c r="S7" s="27">
+        <f t="shared" si="0"/>
         <v>1.1050701000000001E-3</v>
       </c>
-      <c r="U7" s="33"/>
-      <c r="V7" s="27">
+      <c r="U7" s="49"/>
+      <c r="V7" s="17">
         <v>4</v>
       </c>
       <c r="W7" s="13">
@@ -5770,62 +5820,62 @@
         <f>$V$7*S7-$B$2</f>
         <v>1.7333520000000022E-4</v>
       </c>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="27">
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="17">
         <v>4</v>
       </c>
       <c r="AC7" s="15">
-        <f t="shared" ref="AC7:AC8" si="1">$B$2/Q7</f>
+        <f t="shared" ref="AC7" si="2">$B$2/Q7</f>
         <v>3.9170926994208224</v>
       </c>
       <c r="AD7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8336335046018637</v>
       </c>
       <c r="AE7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8431455162889665</v>
       </c>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="27">
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="17">
         <v>4</v>
       </c>
-      <c r="AI7" s="49">
+      <c r="AI7" s="26">
         <f>AC7/$AH$7</f>
         <v>0.9792731748552056</v>
       </c>
-      <c r="AJ7" s="49">
+      <c r="AJ7" s="26">
         <f>AD7/$AH$7</f>
         <v>0.95840837615046592</v>
       </c>
-      <c r="AK7" s="49">
+      <c r="AK7" s="26">
         <f>AE7/$AH$7</f>
         <v>0.96078637907224163</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O8" s="33"/>
-      <c r="P8" s="27">
+      <c r="O8" s="49"/>
+      <c r="P8" s="17">
         <v>7</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="27">
         <f>B5</f>
         <v>1.5544835666666666E-2</v>
       </c>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="27">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="17">
         <v>7</v>
       </c>
       <c r="W8" s="13">
         <f>$V$8*Q8-$B$2</f>
         <v>0.10456690446666665</v>
       </c>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="27">
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="17">
         <v>8</v>
       </c>
       <c r="AC8" s="15">
@@ -5840,19 +5890,19 @@
         <f>$B$2/S9</f>
         <v>7.1601324346551509</v>
       </c>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="27">
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="17">
         <v>8</v>
       </c>
-      <c r="AI8" s="49">
+      <c r="AI8" s="26">
         <f>AC8/$AH$8</f>
         <v>0.89246976953430746</v>
       </c>
-      <c r="AJ8" s="49">
+      <c r="AJ8" s="26">
         <f>AD8/$AH$8</f>
         <v>0.90329478204940616</v>
       </c>
-      <c r="AK8" s="49">
+      <c r="AK8" s="26">
         <f>AE8/$AH$8</f>
         <v>0.89501655433189387</v>
       </c>
@@ -5861,24 +5911,24 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="27">
+      <c r="O9" s="49"/>
+      <c r="P9" s="17">
         <v>8</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="27">
         <f>B6</f>
         <v>5.948304000000001E-4</v>
       </c>
-      <c r="R9" s="50">
+      <c r="R9" s="27">
         <f>C6</f>
         <v>5.8770199999999995E-4</v>
       </c>
-      <c r="S9" s="50">
+      <c r="S9" s="27">
         <f>D6</f>
         <v>5.9313780000000004E-4</v>
       </c>
-      <c r="U9" s="33"/>
-      <c r="V9" s="27">
+      <c r="U9" s="49"/>
+      <c r="V9" s="17">
         <v>8</v>
       </c>
       <c r="W9" s="13">
@@ -5893,16 +5943,16 @@
         <f>$V$9*S9-$B$2</f>
         <v>4.9815720000000001E-4</v>
       </c>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
@@ -5919,54 +5969,313 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG14" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="41"/>
+    </row>
+    <row r="15" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="43"/>
+    </row>
+    <row r="16" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="52">
+        <v>10000</v>
+      </c>
+      <c r="AJ16" s="53">
+        <v>100000</v>
+      </c>
+      <c r="AK16" s="53">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG17" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="17">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="26">
+        <f>'10K'!P22</f>
+        <v>0.55519338124865103</v>
+      </c>
+      <c r="AJ17" s="55">
+        <f>'100K'!AI6</f>
+        <v>0.99264450621432665</v>
+      </c>
+      <c r="AK17" s="26">
+        <f>AI6</f>
+        <v>0.98918133299669209</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="17">
+        <v>4</v>
+      </c>
+      <c r="AI18" s="56">
+        <f>'10K'!P23</f>
+        <v>0.40609085938720402</v>
+      </c>
+      <c r="AJ18" s="54">
+        <f>'100K'!AI7</f>
+        <v>0.89768665807124048</v>
+      </c>
+      <c r="AK18" s="55">
+        <f t="shared" ref="AK18:AK19" si="3">AI7</f>
+        <v>0.9792731748552056</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="17">
+        <v>8</v>
+      </c>
+      <c r="AI19" s="26">
+        <f>'10K'!P24</f>
+        <v>8.5864768211420556E-2</v>
+      </c>
+      <c r="AJ19" s="56">
+        <f>'100K'!AI8</f>
+        <v>0.46387550530682942</v>
+      </c>
+      <c r="AK19" s="54">
+        <f t="shared" si="3"/>
+        <v>0.89246976953430746</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="AG21" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="41"/>
+    </row>
+    <row r="22" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ22" s="43"/>
+      <c r="AK22" s="43"/>
+    </row>
+    <row r="23" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="52">
+        <v>10000</v>
+      </c>
+      <c r="AJ23" s="53">
+        <v>100000</v>
+      </c>
+      <c r="AK23" s="53">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="AG24" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="17">
+        <v>2</v>
+      </c>
+      <c r="AI24" s="26">
+        <f>'10K'!Q22</f>
+        <v>0.43639326944752194</v>
+      </c>
+      <c r="AJ24" s="55">
+        <f>'100K'!AJ6</f>
+        <v>0.9556903470606477</v>
+      </c>
+      <c r="AK24" s="26">
+        <f>AJ6</f>
+        <v>0.98052382581276243</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="17">
+        <v>4</v>
+      </c>
+      <c r="AI25" s="26">
+        <f>'10K'!Q23</f>
+        <v>0.23287599138744647</v>
+      </c>
+      <c r="AJ25" s="54">
+        <f>'100K'!AJ7</f>
+        <v>0.85183607719289545</v>
+      </c>
+      <c r="AK25" s="55">
+        <f t="shared" ref="AK25:AK26" si="4">AJ7</f>
+        <v>0.95840837615046592</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="17">
+        <v>8</v>
+      </c>
+      <c r="AI26" s="26">
+        <f>'10K'!Q24</f>
+        <v>8.543206546743809E-2</v>
+      </c>
+      <c r="AJ26" s="26">
+        <f>'100K'!AJ8</f>
+        <v>0.51742924741958052</v>
+      </c>
+      <c r="AK26" s="54">
+        <f t="shared" si="4"/>
+        <v>0.90329478204940616</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG28" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="41"/>
+    </row>
+    <row r="29" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+    </row>
+    <row r="30" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="52">
+        <v>10000</v>
+      </c>
+      <c r="AJ30" s="53">
+        <v>100000</v>
+      </c>
+      <c r="AK30" s="53">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG31" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH31" s="17">
+        <v>2</v>
+      </c>
+      <c r="AI31" s="26">
+        <f>'10K'!R22</f>
+        <v>0.4306705361686014</v>
+      </c>
+      <c r="AJ31" s="26">
+        <f>'100K'!AK6</f>
+        <v>0.88043981590444509</v>
+      </c>
+      <c r="AK31" s="26">
+        <f>AK6</f>
+        <v>0.97738188991780872</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="17">
+        <v>4</v>
+      </c>
+      <c r="AI32" s="26">
+        <f>'10K'!R23</f>
+        <v>0.24967345617143824</v>
+      </c>
+      <c r="AJ32" s="54">
+        <f>'100K'!AK7</f>
+        <v>0.81692241071669824</v>
+      </c>
+      <c r="AK32" s="26">
+        <f t="shared" ref="AK32:AK33" si="5">AK7</f>
+        <v>0.96078637907224163</v>
+      </c>
+    </row>
+    <row r="33" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG33" s="48"/>
+      <c r="AH33" s="17">
+        <v>8</v>
+      </c>
+      <c r="AI33" s="26">
+        <f>'10K'!R24</f>
+        <v>8.6536422184527381E-2</v>
+      </c>
+      <c r="AJ33" s="26">
+        <f>'100K'!AK8</f>
+        <v>0.50600238008874554</v>
+      </c>
+      <c r="AK33" s="54">
+        <f t="shared" si="5"/>
+        <v>0.89501655433189387</v>
+      </c>
+    </row>
+    <row r="38" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="AG4:AH5"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="U6:U9"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="AG6:AG8"/>
+  <mergeCells count="28">
+    <mergeCell ref="AG31:AG33"/>
+    <mergeCell ref="AG22:AH23"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="AG24:AG26"/>
+    <mergeCell ref="AG28:AK28"/>
+    <mergeCell ref="AG29:AH30"/>
+    <mergeCell ref="AI29:AK29"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AG15:AH16"/>
+    <mergeCell ref="AI15:AK15"/>
+    <mergeCell ref="AG17:AG19"/>
+    <mergeCell ref="AG21:AK21"/>
     <mergeCell ref="O3:S3"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="AA3:AE3"/>
@@ -5977,6 +6286,12 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AA4:AB5"/>
     <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AG4:AH5"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="U6:U9"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="AG6:AG8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
